--- a/PlateForExcelFiles/test1.xlsx
+++ b/PlateForExcelFiles/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ExcelEaterConsoleEdition\PlateForExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721C021-DCEA-4F90-B4DA-C4F27183AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5811FC-DA7E-41B3-B60D-7329BC679D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF964742-E980-4EEF-BADD-DA0DA7EF5C8A}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF964742-E980-4EEF-BADD-DA0DA7EF5C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="17" r:id="rId1"/>
@@ -5344,8 +5344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D7679-8650-40BF-8E7C-E846D4648E84}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5785,8 +5785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5034EBE9-3E66-48BA-B631-66DB333771AD}">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C168" sqref="C2:C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8689,8 +8689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E08C05A-0A99-4AE7-831C-A0C26FE4D190}">
   <dimension ref="A1:E434"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A167" sqref="A2:A167"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13440,7 +13440,7 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A85" sqref="A2:A85"/>
+      <selection activeCell="C85" sqref="C2:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
